--- a/pred_ohlcv/54_21/2020-01-20 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 KNC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-100110.7081</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-105030.0472</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-103775.2872948328</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-141654.1521948328</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-102204.7745838477</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-105860.9873838477</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-103741.9105838477</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-103731.9105838477</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-103731.9105838477</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-97420.01708384772</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-97670.01708384772</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-97694.46708384772</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-97927.54888384772</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-98690.21508384772</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-99904.29338384772</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-101304.2933838477</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-123766.7239947604</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-121695.7401890951</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-121246.6688890951</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-121100.6523890952</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-121100.6523890952</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-121600.3022890952</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-121600.3022890952</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-120838.0449890952</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-122183.0718890952</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-130183.0718890952</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-164433.0718890952</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-180679.4961890952</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-190260.0478890952</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 KNC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 KNC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-100110.7081</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-105222.6821948328</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-105222.6821948328</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-141654.1521948328</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-102204.7745838477</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-105860.9873838477</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-103741.9105838477</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-103731.9105838477</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-103731.9105838477</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-97420.01708384772</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-98170.01708384772</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-97670.01708384772</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-97694.46708384772</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-97927.54888384772</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-98690.21508384772</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-99904.29338384772</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-101304.2933838477</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-122415.7603947604</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-123242.5412947604</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-123766.7239947604</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-122408.7222947604</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-121695.7401890951</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-121246.6688890951</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-121100.6523890952</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-121100.6523890952</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-121600.3022890952</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-121600.3022890952</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-120838.0449890952</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-122183.0718890952</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-130183.0718890952</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-164433.0718890952</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-180679.4961890952</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
